--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1991.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1991.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.006*"bank" + 0.005*"foreign" + 0.005*"may" + 0.005*"exchange" + 0.004*"percent" + 0.004*"import" + 0.004*"rate" + 0.003*"payment" + 0.003*"currency" + 0.003*"export"</t>
-  </si>
-  <si>
-    <t>0.018*"foreign" + 0.014*"bank" + 0.013*"import" + 0.012*"exchange" + 0.010*"export" + 0.008*"may" + 0.008*"rate" + 0.007*"percent" + 0.007*"account" + 0.006*"currency"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.018*"bank" + 0.017*"import" + 0.017*"exchange" + 0.013*"may" + 0.012*"export" + 0.012*"currency" + 0.009*"rate" + 0.009*"account" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.004*"exchange" + 0.004*"import" + 0.003*"bank" + 0.003*"may" + 0.002*"account" + 0.002*"rate" + 0.002*"export" + 0.002*"currency" + 0.002*"percent"</t>
-  </si>
-  <si>
-    <t>0.004*"may" + 0.004*"import" + 0.004*"foreign" + 0.003*"exchange" + 0.003*"currency" + 0.003*"payment" + 0.003*"bank" + 0.003*"export" + 0.003*"percent" + 0.003*"account"</t>
+    <t>0.052*"rate" + 0.039*"exchange" + 0.021*"bank" + 0.017*"market" + 0.016*"currency" + 0.013*"december" + 0.012*"within" + 0.011*"day" + 0.011*"transaction" + 0.011*"arrangement"</t>
+  </si>
+  <si>
+    <t>0.048*"foreign" + 0.044*"bank" + 0.037*"may" + 0.030*"exchange" + 0.030*"account" + 0.026*"currency" + 0.020*"payment" + 0.018*"resident" + 0.016*"nonresident" + 0.012*"must"</t>
+  </si>
+  <si>
+    <t>0.032*"capital" + 0.016*"country" + 0.015*"republic" + 0.013*"company" + 0.012*"foreign" + 0.011*"transfer" + 0.010*"november" + 0.009*"july" + 0.009*"march" + 0.008*"abroad"</t>
+  </si>
+  <si>
+    <t>0.037*"export" + 0.028*"fund" + 0.021*"investment" + 0.020*"gold" + 0.020*"international" + 0.018*"monetary" + 0.013*"foreign" + 0.012*"require" + 0.011*"ministry" + 0.011*"finance"</t>
+  </si>
+  <si>
+    <t>0.085*"import" + 0.034*"percent" + 0.026*"regulation" + 0.021*"originate" + 0.019*"duty" + 0.018*"certain" + 0.017*"commission" + 0.016*"custom" + 0.013*"good" + 0.013*"product"</t>
   </si>
 </sst>
 </file>
